--- a/data/trans_dic/P3A$personadelacasa-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A$personadelacasa-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,06; 86,41</t>
+          <t>73,16; 86,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73,96; 84,56</t>
+          <t>73,91; 84,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75,16; 84,25</t>
+          <t>75,68; 84,48</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,21; 47,92</t>
+          <t>34,87; 46,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,77; 35,22</t>
+          <t>17,3; 35,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,38; 39,05</t>
+          <t>26,05; 38,82</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,58; 23,69</t>
+          <t>16,82; 23,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,61; 44,26</t>
+          <t>15,68; 42,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,59; 33,56</t>
+          <t>17,58; 34,15</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 19,09</t>
+          <t>5,52; 19,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,88; 26,27</t>
+          <t>19,87; 26,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,38; 21,57</t>
+          <t>10,18; 21,63</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,06; 23,55</t>
+          <t>17,03; 23,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,42; 19,15</t>
+          <t>14,4; 19,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,21; 20,15</t>
+          <t>16,58; 20,44</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,32; 15,92</t>
+          <t>10,15; 15,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,9; 11,97</t>
+          <t>3,1; 12,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,87; 12,69</t>
+          <t>4,67; 12,69</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,88; 13,7</t>
+          <t>8,13; 14,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,81; 17,52</t>
+          <t>12,8; 17,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,55; 15,32</t>
+          <t>11,53; 15,31</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>20,01; 29,01</t>
+          <t>20,98; 29,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,83; 27,58</t>
+          <t>20,53; 27,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,94; 27,55</t>
+          <t>22,23; 27,51</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que al menos otra persona se ocupa principalmente de las tareas domésticas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>323058</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>249299</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>572356</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>292640; 345496</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>231498; 266007</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>539706; 602513</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>172620</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>147579</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>320199</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>147698; 198880</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>88614; 179729</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>243694; 363204</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>107351</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>138573</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>245923</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>90212; 128484</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>92821; 249724</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>198325; 385290</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>117100</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>166884</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>283984</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>48975; 170219</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>141518; 185682</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>162874; 346045</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>112566</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>90325</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>202891</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>95583; 132658</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>78922; 104697</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>183904; 226755</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>47206</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>46225</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>93431</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>37254; 57812</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>18838; 74173</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>45555; 123740</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>30458</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>64173</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>94631</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>22992; 39805</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>54527; 74219</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>81676; 108450</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1155</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>910358</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>903057</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1813415</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>725812; 1007587</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>761999; 1030299</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1593901; 1972494</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>